--- a/CRDMA/docs/test_cases/packages/CDVM/CRDMA CDVM Test Cases.xlsx
+++ b/CRDMA/docs/test_cases/packages/CDVM/CRDMA CDVM Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="14100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Category 1 DVM Tests" sheetId="5" r:id="rId1"/>
@@ -334,9 +334,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -645,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,7 +788,7 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -797,7 +799,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -814,7 +816,7 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -825,7 +827,7 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -844,7 +846,7 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -855,7 +857,7 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -875,7 +877,7 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -886,7 +888,7 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="11" t="s">
         <v>57</v>
       </c>
     </row>
@@ -908,7 +910,7 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -919,7 +921,7 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -930,7 +932,7 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -946,7 +948,7 @@
       <c r="A32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -957,7 +959,7 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -968,7 +970,7 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -976,7 +978,7 @@
       <c r="A35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -994,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1032,7 +1034,7 @@
       <c r="A2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1052,7 +1054,7 @@
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="9" t="s">

--- a/CRDMA/docs/test_cases/packages/CDVM/CRDMA CDVM Test Cases.xlsx
+++ b/CRDMA/docs/test_cases/packages/CDVM/CRDMA CDVM Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="14100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Category 1 DVM Tests" sheetId="5" r:id="rId1"/>
@@ -284,7 +284,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +303,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -317,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -340,6 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,7 +654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -996,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1013,7 @@
     <col min="2" max="2" width="47.5703125" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.42578125" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1031,7 +1038,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1051,7 +1058,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -1071,7 +1078,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1091,7 +1098,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="8" t="s">

--- a/CRDMA/docs/test_cases/packages/CDVM/CRDMA CDVM Test Cases.xlsx
+++ b/CRDMA/docs/test_cases/packages/CDVM/CRDMA CDVM Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="14100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Category 1 DVM Tests" sheetId="5" r:id="rId1"/>
@@ -224,10 +224,6 @@
 Do not choose primary survey category</t>
   </si>
   <si>
-    <t>create cruise without warning:
-Choose one or more survey categories</t>
-  </si>
-  <si>
     <t>(overlap to no overlap) 
 Start Date = 12/1/2018
 End Date = 12/9/2018</t>
@@ -243,6 +239,10 @@
   </si>
   <si>
     <t>Expected Result</t>
+  </si>
+  <si>
+    <t>create cruise without warning:
+Choose one or more primary survey categories</t>
   </si>
 </sst>
 </file>
@@ -284,7 +284,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,12 +303,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -323,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -343,10 +337,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -795,7 +786,7 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -806,8 +797,8 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="11" t="s">
-        <v>64</v>
+      <c r="E12" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -823,7 +814,7 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -834,7 +825,7 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="9" t="s">
         <v>61</v>
       </c>
     </row>
@@ -853,7 +844,7 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -864,7 +855,7 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -884,7 +875,7 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -895,7 +886,7 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -910,15 +901,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="11" t="s">
-        <v>65</v>
+      <c r="E27" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -928,7 +917,7 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -939,7 +928,7 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -955,7 +944,7 @@
       <c r="A32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -966,18 +955,15 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -985,7 +971,7 @@
       <c r="A35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1003,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1014,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -1038,8 +1024,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>66</v>
+      <c r="A2" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>27</v>
@@ -1058,7 +1044,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -1078,14 +1064,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>38</v>
@@ -1098,14 +1084,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>68</v>
+      <c r="A5" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>38</v>
